--- a/experiments/20-01-22_12-41-12_stiffness-only.xlsx
+++ b/experiments/20-01-22_12-41-12_stiffness-only.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijiangh\Documents\pb_ws\pb-construction\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECC814B-F6C5-4A42-8844-691A62A486D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE689F72-D0B0-4C7C-BDF5-3124F450199E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detailed" sheetId="1" r:id="rId1"/>
     <sheet name="summary" sheetId="2" r:id="rId2"/>
+    <sheet name="compas-tree_stiffness-only" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="109">
   <si>
     <t>config_id</t>
   </si>
@@ -325,12 +326,36 @@
   <si>
     <t>problem</t>
   </si>
+  <si>
+    <t>Interesting case showing z might perform worse than even pure randomness.</t>
+  </si>
+  <si>
+    <t>z follows a strict "layering" effect, does not know we can build somewhere else first to provide a tension tie later.</t>
+  </si>
+  <si>
+    <t>progression-dijkstra</t>
+  </si>
+  <si>
+    <t>progression-random</t>
+  </si>
+  <si>
+    <t>progression-z</t>
+  </si>
+  <si>
+    <t>regression-dijkstra</t>
+  </si>
+  <si>
+    <t>regression-random</t>
+  </si>
+  <si>
+    <t>regression-z</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,8 +368,15 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,12 +423,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,6 +447,2445 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>compas_beam_tree</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, stiffness-only</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-tree_stiffness-only'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>num_evaluated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'compas-tree_stiffness-only'!$D$4:$E$9</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'compas-tree_stiffness-only'!$E$4:$E$9</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'compas-tree_stiffness-only'!$E$4:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>progression-dijkstra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progression-random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>progression-z</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regression-dijkstra</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regression-random</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regression-z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-tree_stiffness-only'!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>576.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51554.832999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37282.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9E8-4F51-85DB-F264A09FA7C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-tree_stiffness-only'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stiffness_failures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'compas-tree_stiffness-only'!$D$4:$E$9</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'compas-tree_stiffness-only'!$E$4:$E$9</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'compas-tree_stiffness-only'!$E$4:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>progression-dijkstra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progression-random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>progression-z</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regression-dijkstra</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regression-random</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regression-z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-tree_stiffness-only'!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>407.66699999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47306.167000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31885.832999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9E8-4F51-85DB-F264A09FA7C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="196765488"/>
+        <c:axId val="404628624"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-tree_stiffness-only'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A9E8-4F51-85DB-F264A09FA7C1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'compas-tree_stiffness-only'!$D$4:$E$9</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'compas-tree_stiffness-only'!$E$4:$E$9</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'compas-tree_stiffness-only'!$E$4:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>progression-dijkstra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>progression-random</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>progression-z</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>regression-dijkstra</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>regression-random</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>regression-z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-tree_stiffness-only'!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.6780000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5660000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.909000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300.01100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9E8-4F51-85DB-F264A09FA7C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="301129968"/>
+        <c:axId val="409090320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="196765488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404628624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404628624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>avearge number of times</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196765488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="409090320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301129968"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="301129968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="409090320"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>compas_beam_tree, stiffness-only</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-tree_stiffness-only'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>progression-dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-tree_stiffness-only'!$F$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>runtime</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>num_evaluated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>stiffness_failures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-tree_stiffness-only'!$F$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.6780000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5564-42B9-824D-C8FECE602A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-tree_stiffness-only'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>progression-random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-tree_stiffness-only'!$F$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>runtime</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>num_evaluated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>stiffness_failures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-tree_stiffness-only'!$F$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.5660000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>576.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.167000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5564-42B9-824D-C8FECE602A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compas-tree_stiffness-only'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>progression-z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compas-tree_stiffness-only'!$F$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>runtime</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>num_evaluated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>stiffness_failures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compas-tree_stiffness-only'!$F$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.909000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>407.66699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5564-42B9-824D-C8FECE602A33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="466267264"/>
+        <c:axId val="404624464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="466267264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404624464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404624464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466267264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>592453</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419587</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>126476</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC77789-0CBD-4124-B7C1-65948ECDC297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257092</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482627</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>97983</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A03B9A5-2C7F-40DF-80A8-E431E153DD8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,15 +3173,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T493"/>
+  <dimension ref="A1:U493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S61" sqref="B51:S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -2621,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2671,12 +5152,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2690,7 +5171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2698,7 +5179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2748,7 +5229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2798,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2848,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2898,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2947,8 +5428,11 @@
       <c r="S57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2994,8 +5478,11 @@
       <c r="Q58">
         <v>47306.167000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3042,7 +5529,7 @@
         <v>31885.832999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3092,7 +5579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3139,12 +5626,12 @@
         <v>34754</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3158,7 +5645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6958,7 +9445,7 @@
       <c r="B159">
         <v>13</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D159" t="s">
@@ -12670,7 +15157,7 @@
       <c r="B303">
         <v>25</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D303" t="s">
@@ -20770,4 +23257,453 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180455DA-5CB5-4AA5-9712-CD7D27B0A0B7}">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4">
+        <v>8.6780000000000008</v>
+      </c>
+      <c r="G4">
+        <v>690</v>
+      </c>
+      <c r="H4">
+        <v>154</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1E-3</v>
+      </c>
+      <c r="N4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O4">
+        <v>190</v>
+      </c>
+      <c r="P4">
+        <v>190</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5">
+        <v>8.5660000000000007</v>
+      </c>
+      <c r="G5">
+        <v>576.33299999999997</v>
+      </c>
+      <c r="H5">
+        <v>98.167000000000002</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1E-3</v>
+      </c>
+      <c r="N5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O5">
+        <v>190</v>
+      </c>
+      <c r="P5">
+        <v>190</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6">
+        <v>10.909000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1196</v>
+      </c>
+      <c r="H6">
+        <v>407.66699999999997</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="M6">
+        <v>1E-3</v>
+      </c>
+      <c r="N6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O6">
+        <v>190</v>
+      </c>
+      <c r="P6">
+        <v>190</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7">
+        <v>300.012</v>
+      </c>
+      <c r="G7">
+        <v>51554.832999999999</v>
+      </c>
+      <c r="H7">
+        <v>47306.167000000001</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>74</v>
+      </c>
+      <c r="L7">
+        <v>9.3330000000000002</v>
+      </c>
+      <c r="M7">
+        <v>1E-3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7">
+        <v>190</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8">
+        <v>300.01</v>
+      </c>
+      <c r="G8">
+        <v>35589</v>
+      </c>
+      <c r="H8">
+        <v>31885.832999999999</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>128.167</v>
+      </c>
+      <c r="L8">
+        <v>10.5</v>
+      </c>
+      <c r="M8">
+        <v>1E-3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8">
+        <v>190</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9">
+        <v>300.01100000000002</v>
+      </c>
+      <c r="G9">
+        <v>37282.5</v>
+      </c>
+      <c r="H9">
+        <v>34754</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>114.667</v>
+      </c>
+      <c r="L9">
+        <v>9.5</v>
+      </c>
+      <c r="M9">
+        <v>1E-3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>190</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="G11">
+        <v>380</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1E-3</v>
+      </c>
+      <c r="N11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O11">
+        <v>190</v>
+      </c>
+      <c r="P11">
+        <v>190</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>10.305999999999999</v>
+      </c>
+      <c r="G12">
+        <v>190</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1E-3</v>
+      </c>
+      <c r="N12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O12">
+        <v>190</v>
+      </c>
+      <c r="P12">
+        <v>190</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/experiments/20-01-22_12-41-12_stiffness-only.xlsx
+++ b/experiments/20-01-22_12-41-12_stiffness-only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijiangh\Documents\pb_ws\pb-construction\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE689F72-D0B0-4C7C-BDF5-3124F450199E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50899A9D-63BE-469F-A49F-D5AF32ECE215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="109">
   <si>
     <t>config_id</t>
   </si>
@@ -1127,6 +1127,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="409090320"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3176,7 +3177,7 @@
   <dimension ref="A1:U493"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S61" sqref="B51:S61"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23263,8 +23264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180455DA-5CB5-4AA5-9712-CD7D27B0A0B7}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23284,6 +23285,10 @@
       <c r="C1" t="s">
         <v>36</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
